--- a/swordmap/evaluation/localCodeSearch.xlsx
+++ b/swordmap/evaluation/localCodeSearch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>search task</t>
   </si>
@@ -28,9 +28,6 @@
     <t>all items found</t>
   </si>
   <si>
-    <t>methods</t>
-  </si>
-  <si>
     <t>swordnet</t>
   </si>
   <si>
@@ -55,18 +52,12 @@
     <t>collect music files</t>
   </si>
   <si>
-    <t>MovieItem.getImage(TiVoImageDocumentRequest, BufferedImage)</t>
-  </si>
-  <si>
     <t>extract network domain information</t>
   </si>
   <si>
     <t>configure server ip address</t>
   </si>
   <si>
-    <t xml:space="preserve">ServerConfiguration.setIPAddress(String)   </t>
-  </si>
-  <si>
     <t>find image files</t>
   </si>
   <si>
@@ -85,15 +76,9 @@
     <t>login ebay</t>
   </si>
   <si>
-    <t>JSignIn.signIn((String, String)</t>
-  </si>
-  <si>
     <t>translate currency</t>
   </si>
   <si>
-    <t xml:space="preserve">Currency.convertToUSD(Currency, Currency, Currency)   </t>
-  </si>
-  <si>
     <t>jajuk</t>
   </si>
   <si>
@@ -106,9 +91,6 @@
     <t>get track author</t>
   </si>
   <si>
-    <t>Track.getAuthor()</t>
-  </si>
-  <si>
     <t>silence player</t>
   </si>
   <si>
@@ -212,134 +194,6 @@
   </si>
   <si>
     <t>recall</t>
-  </si>
-  <si>
-    <t>ChartPropertiesDialog.initAll()   
-ChartPropertiesDialog.initComponents()   
-ChartSelectionJDialog.initAll()   
-ChartSelectionJDialog.initComponents()   
-IReportChartDialog.initAll()   
-IReportChartDialog.initComponents()</t>
-  </si>
-  <si>
-    <t>JEditTextArea.getSelectedText()   
-JEditTextArea.getSelectionStartLine()   
-JEditTextArea.getSelectionStart()   
-JEditTextArea.getSelectionStart(int)   
-JEditTextArea.getSelectionStart(int)  
-JEditTextArea.getSelectionEnd(int)   
-JEditTextArea.getSelectionEndLine()</t>
-  </si>
-  <si>
-    <t>JDBCConnection.setPassword(String)   
-JDBCConnection.getPassword()</t>
-  </si>
-  <si>
-    <t>CSVExporter.export(String)   
-CSVExporter.addCSV(StringBuffer, Object, boolean)   
-CSVExporter.CSVExporter(JTable)</t>
-  </si>
-  <si>
-    <t>AvailableCharts.addChartSheetProperties(ChartDefinition)   
-DefaultChartFactory.setChartProperties(Properties, JFreeChart)   
-ChartPropertiesDialog.setPlotSheetProperties(Plot)   
-CategorySheetPanel.addSheetProperty(String, SheetProperty)   
-ReportElementSheetPanel.initSheetProperties()   
-SheetPanel.addSheetProperty(SheetProperty)      
-ChartDefinition.setSheetProperties(Vector)</t>
-  </si>
-  <si>
-    <t>Dataset.copyBaseDataset(Dataset)   
-Dataset.cloneMe()   
-CategoryDataset.cloneMe()   
-PieDataset.cloneMe()   
-HighLowDataset.cloneMe()   
-TimePeriodDataset.cloneMe()   
-TimeSeriesDataset.cloneMe()</t>
-  </si>
-  <si>
-    <t>AudioProxy.loadMetaData()   
-M3uPlaylistProxy.loadMetaData()   
-Mp3Proxy.loadMetaData()   
-PlsPlaylistProxy.loadMetaData()   
-iTunesContainer.loadMetaData()</t>
-  </si>
-  <si>
-    <t>Mp3OrganizerThread.findFiles()  
-FileGatherer.gatherDirectoryFromFileSystem(ArrayList, File, String, FileFilter, boolean, int)   
-FileGatherer.gatherDirectory(File, String, FileFilter, boolean)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AudioProxy.getGenre()   
-Mp3Proxy.getGenre(int)   </t>
-  </si>
-  <si>
-    <t>AudioProxy.setArtist(String)   
-Mp3Wrapper.setArtist(String)</t>
-  </si>
-  <si>
-    <t>NetworkInfo.parseDomain()   
-NetworkInfo.parseDomain(String)   
-LinuxNetworkInfo.parseDomain(String)   
-MacNetworkInfo.parseDomain(String)</t>
-  </si>
-  <si>
-    <t>ThumbnailThread.findFiles(FileSystemContainer)   
-ImageOrganizerThread.findFiles()</t>
-  </si>
-  <si>
-    <t>Auctions.delEntry(AuctionEntry)   
-AuctionServer.unregisterAuction(AuctionEntry)   
-AuctionServerManager.delete_entry(AuctionEntry)   
-AuctionsManager.delEntry(AuctionEntry)   
-FilterManager.deleteAuction(AuctionEntry)   
-JBidMouse.DoDelete(Component, AuctionEntry)</t>
-  </si>
-  <si>
-    <t>AuctionsUIModel.getBestBidValue(AuctionEntry)   
-JBidMouse.getBestBidValue(AuctionEntry)</t>
-  </si>
-  <si>
-    <t>AuctionEntry.checkUpdate()   
-AuctionEntry.forceUpdate()  
-AuctionEntry.setNeedsUpdate()   
-AuctionEntry.update()   
-Auctions.doNextUpdate()   
-Auctions.doUpdate(AuctionEntry)   
-Auctions.update(AuctionEntry)   
-AuctionServer.updateHighBid(AuctionEntry)   
-ebayServer.updateHighBid(AuctionEntry)   
-JBidMouse.DoUpdate(AuctionEntry)   
-JBidMouse.DoUpdateAll()</t>
-  </si>
-  <si>
-    <t>AuctionEntry.buy(int)   
-AuctionServer.buy(AuctionEntry, int)   
-ebayServer.buy(AuctionEntry, int)   
-JBidMouse.DoBuy(Component, AuctionEntry)</t>
-  </si>
-  <si>
-    <t>Playlist.getPlayeablePlaylistFile()   
-Track.getPlayeableFile(boolean)</t>
-  </si>
-  <si>
-    <t>PlaylistManager.registerPlaylist(PlaylistFile)   
-PlaylistManager.registerPlaylist(String, PlaylistFile)   
-PlaylistFileManager.registerPlaylistFile(File, Directory)   
-PlaylistFileManager.registerPlaylistFile(String, String, Directory)   
-Directory.addPlaylistFile(PlaylistFile)   
-Playlist.addFile(PlaylistFile)</t>
-  </si>
-  <si>
-    <t>PlaylistFile.remove(int)   
-PlaylistFile.remove(File)</t>
-  </si>
-  <si>
-    <t>Player.mute()   
-Player.mute(boolean)</t>
-  </si>
-  <si>
-    <t>F-measure</t>
   </si>
   <si>
     <t>AVG</t>
@@ -387,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,6 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,21 +617,17 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
@@ -806,61 +657,55 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="P3" s="8"/>
-      <c r="Q3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -898,27 +743,16 @@
       <c r="O4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>2*(L4*O4)/(L4+O4)</f>
-        <v>0.70592041410546746</v>
-      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -956,27 +790,16 @@
       <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" ref="S5:S27" si="0">2*(L5*O5)/(L5+O5)</f>
-        <v>0.48277954786830524</v>
-      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1014,27 +837,16 @@
       <c r="O6" s="5">
         <v>1</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>0.57142857142857151</v>
-      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1072,27 +884,16 @@
       <c r="O7" s="5">
         <v>1</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1130,27 +931,16 @@
       <c r="O8" s="5">
         <v>0.57140000000000002</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>0.2352309659485754</v>
-      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1188,31 +978,18 @@
       <c r="O9" s="5">
         <v>1</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" ref="Q9:Q27" si="1">2*(J9*M9)/(J9+M9)</f>
-        <v>1.4432425249169434E-2</v>
-      </c>
-      <c r="R9">
-        <f t="shared" ref="R9:R27" si="2">2*(K9*N9)/(K9+N9)</f>
-        <v>2.5966243882952159E-3</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>0.17284852914306598</v>
-      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1250,29 +1027,16 @@
       <c r="O10" s="5">
         <v>0.4</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="2"/>
-        <v>5.1775638898108193E-3</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>0.50000937470704032</v>
-      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1310,26 +1074,16 @@
       <c r="O11" s="5">
         <v>0</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1367,27 +1121,16 @@
       <c r="O12" s="5">
         <v>1</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>0.16665138876157301</v>
-      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1425,29 +1168,15 @@
       <c r="O13" s="5">
         <v>1</v>
       </c>
-      <c r="P13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="1"/>
-        <v>9.087437953417335E-2</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="2"/>
-        <v>3.9920159680638719E-3</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>0.14281734608598756</v>
-      </c>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1485,27 +1214,16 @@
       <c r="O14" s="5">
         <v>1</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>0.16007359705611776</v>
-      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1543,27 +1261,16 @@
       <c r="O15" s="5">
         <v>1</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1601,27 +1308,15 @@
       <c r="O16" s="5">
         <v>1</v>
       </c>
-      <c r="P16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>0.2857632639067455</v>
-      </c>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1659,31 +1354,18 @@
       <c r="O17" s="5">
         <v>1</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="1"/>
-        <v>5.485314141217662E-2</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="2"/>
-        <v>3.3942298093241488E-3</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1721,29 +1403,16 @@
       <c r="O18" s="5">
         <v>1</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2111341434357875E-2</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="2"/>
-        <v>7.5712293285515042E-3</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
-      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1781,27 +1450,16 @@
       <c r="O19" s="5">
         <v>1</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>11</v>
@@ -1839,29 +1497,16 @@
       <c r="O20" s="5">
         <v>1</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="1"/>
-        <v>2.5861218043628464E-2</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="2"/>
-        <v>1.3113451221935229E-2</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="0"/>
-        <v>0.30134193986750468</v>
-      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1899,28 +1544,16 @@
       <c r="O21" s="5">
         <v>0</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1116993118051878E-2</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="2"/>
-        <v>5.1865150608418117E-3</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1958,26 +1591,15 @@
       <c r="O22" s="5">
         <v>0</v>
       </c>
-      <c r="P22" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
+      <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2015,29 +1637,17 @@
       <c r="O23" s="5">
         <v>1</v>
       </c>
-      <c r="P23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2075,26 +1685,16 @@
       <c r="O24" s="5">
         <v>0</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -2132,29 +1732,16 @@
       <c r="O25" s="5">
         <v>0.33329999999999999</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18462376327493873</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="2"/>
-        <v>5.0682261208576995E-2</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="0"/>
-        <v>7.4125919999999998E-2</v>
-      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2192,27 +1779,16 @@
       <c r="O26" s="5">
         <v>1</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="0"/>
-        <v>0.16007359705611776</v>
-      </c>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="4"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2250,29 +1826,15 @@
       <c r="O27" s="5">
         <v>1</v>
       </c>
-      <c r="P27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="4">
-        <f t="shared" si="1"/>
-        <v>1.014824395582529E-2</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="2"/>
-        <v>4.9875311720698262E-3</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2310,39 +1872,48 @@
       <c r="O28" s="5">
         <v>1</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <f>2*(L28*O28)/(L28+O28)</f>
-        <v>1</v>
-      </c>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q29" s="4">
-        <f>AVERAGE(Q4:Q28)</f>
-        <v>3.0278507299716401E-2</v>
-      </c>
-      <c r="R29" s="4">
-        <f t="shared" ref="R29:S29" si="3">AVERAGE(R4:R28)</f>
-        <v>3.868056881898777E-3</v>
-      </c>
-      <c r="S29" s="4">
-        <f t="shared" si="3"/>
-        <v>0.42163530551013018</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J29" s="9">
+        <f>AVERAGE(J4:J28)</f>
+        <v>1.8600000000000002E-2</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" ref="K29:O29" si="0">AVERAGE(K4:K28)</f>
+        <v>1.964E-3</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.37002799999999991</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29304799999999998</v>
+      </c>
+      <c r="N29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.77218799999999999</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="M1:O2"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="Q1:S2"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="A24:A28"/>
@@ -2350,11 +1921,6 @@
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="M1:O2"/>
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="Q1:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
